--- a/data/Study 3_MTT_Clinical Group_ Data (65 or under).xlsx
+++ b/data/Study 3_MTT_Clinical Group_ Data (65 or under).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenny/Dropbox/KelvinSarahJennyJess/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenny/Dropbox/KelvinSarahJennyJess/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90A8784-84F4-2847-8318-41CAB6B949E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AABC6F-88B6-344F-9795-AF243422F031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="6180" windowWidth="14400" windowHeight="9660" tabRatio="749" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="749" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL Clinical Data" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="833">
   <si>
     <t>GROUP</t>
   </si>
@@ -2535,6 +2535,12 @@
   </si>
   <si>
     <t>1024C</t>
+  </si>
+  <si>
+    <t>1021J</t>
+  </si>
+  <si>
+    <t>1021S</t>
   </si>
 </sst>
 </file>
@@ -3439,7 +3445,18 @@
     <cellStyle name="Note" xfId="2" builtinId="10"/>
     <cellStyle name="Output" xfId="15" builtinId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3717,8 +3734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:HX83"/>
   <sheetViews>
-    <sheetView zoomScale="56" zoomScaleNormal="56" zoomScaleSheetLayoutView="77" workbookViewId="0">
-      <selection sqref="A1:C45"/>
+    <sheetView topLeftCell="A14" zoomScale="92" zoomScaleNormal="56" zoomScaleSheetLayoutView="77" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -57782,7 +57799,7 @@
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A20" sqref="A20:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -68137,7 +68154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E57333E-6BA8-9146-82DC-4630EB8F635E}">
   <dimension ref="A1:AY44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AL18" workbookViewId="0">
       <selection activeCell="AV27" sqref="AV27"/>
     </sheetView>
   </sheetViews>
@@ -70638,8 +70655,8 @@
       <c r="AY19" s="115"/>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A20" s="110">
-        <v>1021</v>
+      <c r="A20" s="110" t="s">
+        <v>831</v>
       </c>
       <c r="B20" s="113" t="s">
         <v>650</v>
@@ -70798,8 +70815,8 @@
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A21" s="110">
-        <v>1021</v>
+      <c r="A21" s="110" t="s">
+        <v>832</v>
       </c>
       <c r="B21" s="113" t="s">
         <v>650</v>
@@ -71749,9 +71766,7 @@
       <c r="AS27" s="121"/>
       <c r="AT27" s="121"/>
       <c r="AU27" s="121"/>
-      <c r="AV27" s="122">
-        <v>99</v>
-      </c>
+      <c r="AV27" s="122"/>
       <c r="AW27" s="122"/>
       <c r="AX27" s="122"/>
       <c r="AY27" s="122"/>
@@ -74101,7 +74116,13 @@
       <c r="AY44" s="115"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:AY1048576">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(D1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
